--- a/现金流量表/300613.xlsx
+++ b/现金流量表/300613.xlsx
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>70852433.65000001</v>
+        <v>50935485.85</v>
       </c>
       <c r="P2" t="n">
-        <v>14.959227417</v>
+        <v>24.8146991937</v>
       </c>
       <c r="Q2" t="n">
-        <v>413803019.39</v>
+        <v>568001656.8</v>
       </c>
       <c r="R2" t="n">
-        <v>87.36712564440001</v>
+        <v>276.7184806385</v>
       </c>
       <c r="S2" t="n">
-        <v>56996460.87</v>
+        <v>105906791.46</v>
       </c>
       <c r="T2" t="n">
-        <v>12.0337859435</v>
+        <v>51.5955650327</v>
       </c>
       <c r="U2" t="n">
-        <v>-220709657.51</v>
+        <v>180077851.45</v>
       </c>
       <c r="V2" t="n">
-        <v>-46.5989069075</v>
+        <v>87.73014806090001</v>
       </c>
       <c r="W2" t="n">
-        <v>994939.72</v>
+        <v>8309978.68</v>
       </c>
       <c r="X2" t="n">
-        <v>0.210063773</v>
+        <v>4.048447125</v>
       </c>
       <c r="Y2" t="n">
-        <v>121704597.23</v>
+        <v>24302682.86</v>
       </c>
       <c r="Z2" t="n">
-        <v>25.6957545969</v>
+        <v>11.8397567964</v>
       </c>
       <c r="AA2" t="n">
-        <v>636352482.26</v>
+        <v>-29916496.18</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.3544746331</v>
+        <v>-14.5746887704</v>
       </c>
       <c r="AC2" t="n">
-        <v>473636984.55</v>
+        <v>205263362.06</v>
       </c>
       <c r="AD2" t="n">
-        <v>478.2273959736</v>
+        <v>173.4340846895</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
